--- a/File/各环节数据展示和业务逻辑/数据展示和逻辑.xlsx
+++ b/File/各环节数据展示和业务逻辑/数据展示和逻辑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="数据展示和逻辑" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
   <si>
     <t>器具登记——我的工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>并且只有一个已领取且报告状态为空，或已分配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,6 +417,18 @@
   </si>
   <si>
     <t>已归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具状态为已领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前登入人所在实验室和器具所在实验室一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具报告都为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -982,13 +990,21 @@
         <v>60</v>
       </c>
       <c r="J63" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>62</v>
       </c>
+      <c r="J64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
@@ -1006,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -1017,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -1030,10 +1046,10 @@
         <v>35</v>
       </c>
       <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
         <v>64</v>
-      </c>
-      <c r="E71" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -1105,10 +1121,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89" t="s">
         <v>68</v>
-      </c>
-      <c r="E89" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -1129,7 +1145,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,7 +1153,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,15 +1213,15 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -1213,7 +1229,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
@@ -1229,7 +1245,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -1252,7 +1268,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,7 +1278,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D118" t="s">
         <v>58</v>
@@ -1270,15 +1286,15 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -1286,15 +1302,15 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
+        <v>83</v>
+      </c>
+      <c r="D123" t="s">
         <v>84</v>
-      </c>
-      <c r="D123" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -1312,12 +1328,12 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -1327,26 +1343,26 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D143" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D144" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E144" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C146" t="s">
         <v>44</v>
@@ -1357,7 +1373,7 @@
         <v>48</v>
       </c>
       <c r="E147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
@@ -1365,12 +1381,12 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
@@ -1380,7 +1396,7 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
@@ -1405,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1424,7 +1440,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1443,10 +1459,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1454,10 +1470,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,7 +1481,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1473,23 +1489,23 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/File/各环节数据展示和业务逻辑/数据展示和逻辑.xlsx
+++ b/File/各环节数据展示和业务逻辑/数据展示和逻辑.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t>器具登记——我的工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,14 @@
   </si>
   <si>
     <t>器具报告都为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核，审核驳回，待批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待批准，批准驳回，已批准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1101,12 +1109,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,12 +1196,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">

--- a/File/各环节数据展示和业务逻辑/数据展示和逻辑.xlsx
+++ b/File/各环节数据展示和业务逻辑/数据展示和逻辑.xlsx
@@ -265,19 +265,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>审核同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核不同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批不同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待入库（没有其他实验室检定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>已批准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核不同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批不同意</t>
+    <t>待批准，已批准，报告已打印，报告已发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具已入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具、报告领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具已入库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -285,35 +341,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具已入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具已领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告已领取</t>
+  </si>
+  <si>
+    <t>器具接收为否，器具领取不需要领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的器具和报告都已经领取，状态为已归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具状态为已领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前登入人所在实验室和器具所在实验室一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具报告都为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核，审核驳回，待批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待批准，批准驳回，已批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>审核驳回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>器具状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待入库（没有其他实验室检定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待批准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批准驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已批准</t>
+    <t>报告已领取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -321,122 +436,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待批准，已批准，报告已打印，报告已发放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具已入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具、报告领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具已入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已批准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具已入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具已领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告已领取</t>
-  </si>
-  <si>
-    <t>报告已领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具接收为否，器具领取不需要领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有退回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告打印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的器具和报告都已经领取，状态为已归档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有退回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已归档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具状态为已领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前登入人所在实验室和器具所在实验室一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具报告都为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待审核，审核驳回，待批准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待批准，批准驳回，已批准</t>
+    <t>报告已打印</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -998,7 +998,7 @@
         <v>60</v>
       </c>
       <c r="J63" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -1006,12 +1006,12 @@
         <v>62</v>
       </c>
       <c r="J64" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,10 +1124,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" t="s">
         <v>67</v>
-      </c>
-      <c r="E89" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -1156,7 +1156,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -1214,12 +1214,12 @@
         <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -1276,7 +1276,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D118" t="s">
         <v>58</v>
@@ -1284,15 +1284,15 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D119" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,15 +1300,15 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D123" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,12 +1326,12 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,26 +1341,26 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D143" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D144" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E144" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C146" t="s">
         <v>44</v>
@@ -1371,7 +1371,7 @@
         <v>48</v>
       </c>
       <c r="E147" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
@@ -1379,12 +1379,12 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
@@ -1420,7 +1420,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1457,10 +1457,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1468,10 +1468,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1487,23 +1487,23 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/File/各环节数据展示和业务逻辑/数据展示和逻辑.xlsx
+++ b/File/各环节数据展示和业务逻辑/数据展示和逻辑.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t>器具登记——我的工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,19 +265,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>审核同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核不同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批不同意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待入库（没有其他实验室检定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>已批准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核不同意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批不同意</t>
+    <t>待批准，已批准，报告已打印，报告已发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具已入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具、报告领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具已入库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -285,35 +341,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>已批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具已入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具已领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告已领取</t>
+  </si>
+  <si>
+    <t>器具接收为否，器具领取不需要领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的器具和报告都已经领取，状态为已归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有退回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具状态为已领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前登入人所在实验室和器具所在实验室一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具报告都为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核，审核驳回，待批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待批准，批准驳回，已批准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>审核驳回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>器具状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待入库（没有其他实验室检定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待批准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批准驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已批准</t>
+    <t>报告已领取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -321,114 +436,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待批准，已批准，报告已打印，报告已发放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具已入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具、报告领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具已入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已批准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具已入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具已领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告已领取</t>
-  </si>
-  <si>
-    <t>报告已领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具接收为否，器具领取不需要领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有退回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告打印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的器具和报告都已经领取，状态为已归档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有退回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已归档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具状态为已领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前登入人所在实验室和器具所在实验室一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具报告都为空</t>
+    <t>报告已打印</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -990,7 +998,7 @@
         <v>60</v>
       </c>
       <c r="J63" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -998,12 +1006,12 @@
         <v>62</v>
       </c>
       <c r="J64" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -1022,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -1033,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -1101,12 +1109,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,10 +1124,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="E89" t="s">
         <v>67</v>
-      </c>
-      <c r="E89" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -1145,7 +1148,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -1153,7 +1156,7 @@
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,12 +1196,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -1216,12 +1214,12 @@
         <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
@@ -1229,7 +1227,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
@@ -1245,7 +1243,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -1268,7 +1266,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,7 +1276,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D118" t="s">
         <v>58</v>
@@ -1286,15 +1284,15 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D119" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,15 +1300,15 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D123" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,12 +1326,12 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -1343,26 +1341,26 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D143" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D144" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E144" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C146" t="s">
         <v>44</v>
@@ -1373,7 +1371,7 @@
         <v>48</v>
       </c>
       <c r="E147" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
@@ -1381,12 +1379,12 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
@@ -1396,7 +1394,7 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
@@ -1422,7 +1420,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1459,10 +1457,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1470,10 +1468,10 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1481,7 +1479,7 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1489,23 +1487,23 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
